--- a/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -434,7 +434,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="37.750625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="37.520625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -434,7 +434,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="30.940625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="29.690625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -434,7 +434,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="29.690625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="38.400625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -509,7 +509,7 @@
     <x:hyperlink ref="A8" location="Hyperlinks!B1:C2" tooltip="SquareBox" display="Link to a range in this worksheet"/>
     <x:hyperlink ref="A9" r:id="rId18"/>
     <x:hyperlink ref="A11" location="Hyperlinks!B1:C2" display="Odd looking link"/>
-    <x:hyperlink ref="A12" r:id="rId19" tooltip="'Send Email'"/>
+    <x:hyperlink ref="A12" r:id="rId19" tooltip="Send Email"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -434,7 +434,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="38.400625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="40.190625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -509,7 +509,7 @@
     <x:hyperlink ref="A8" location="Hyperlinks!B1:C2" tooltip="SquareBox" display="Link to a range in this worksheet"/>
     <x:hyperlink ref="A9" r:id="rId18"/>
     <x:hyperlink ref="A11" location="Hyperlinks!B1:C2" display="Odd looking link"/>
-    <x:hyperlink ref="A12" r:id="rId19" tooltip="'Send Email'"/>
+    <x:hyperlink ref="A12" r:id="rId19"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -434,7 +434,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.190625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="37.632077" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -434,7 +434,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="37.750625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="37.850625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Link to a web page, no tooltip - Yahoo!</x:t>
   </x:si>
@@ -434,7 +434,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="37.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="38.567768" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -428,7 +428,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A14"/>
+  <x:dimension ref="A1:A16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -493,23 +493,32 @@
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
-      <x:c r="A12" s="1">
-        <x:f>HYPERLINK("mailto:test@test.com", "Send Email")</x:f>
+      <x:c r="A12" s="0">
+        <x:f>HYPERLINK("mailto:test@test.com", "Send Email through formula")</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" s="0">
+        <x:f>HYPERLINK("[Hyperlinks.xlsx]Hyperlinks!B2:C4", "Link to range through formula")</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1">
+      <x:c r="A14" s="0">
+        <x:f>HYPERLINK("[../Test.xlsx]Sheet1!B2:C4", "Link to another file through formula")</x:f>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A1" r:id="rId14"/>
-    <x:hyperlink ref="A2" r:id="rId15" tooltip="Click to go to Yahoo!"/>
+    <x:hyperlink ref="A1" r:id="rId13"/>
+    <x:hyperlink ref="A2" r:id="rId14" tooltip="Click to go to Yahoo!"/>
     <x:hyperlink ref="A3" location="Hyperlinks!Test.xlsx" display="Link to a file - same folder"/>
-    <x:hyperlink ref="A4" r:id="rId16"/>
-    <x:hyperlink ref="A5" r:id="rId17"/>
+    <x:hyperlink ref="A4" r:id="rId15"/>
+    <x:hyperlink ref="A5" r:id="rId16"/>
     <x:hyperlink ref="A6" location="Hyperlinks!B1" display="Link to an address in this worksheet"/>
     <x:hyperlink ref="A7" location="'Second Sheet'!A1" display="Link to an address in another worksheet"/>
     <x:hyperlink ref="A8" location="Hyperlinks!B1:C2" tooltip="SquareBox" display="Link to a range in this worksheet"/>
-    <x:hyperlink ref="A9" r:id="rId18"/>
+    <x:hyperlink ref="A9" r:id="rId17"/>
     <x:hyperlink ref="A11" location="Hyperlinks!B1:C2" display="Odd looking link"/>
-    <x:hyperlink ref="A12" r:id="rId19"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -424,7 +424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Hyperlinks" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Second Sheet" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Hyperlinks" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Second Sheet" sheetId="2" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
